--- a/meat.xlsx
+++ b/meat.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12420"/>
+    <workbookView windowWidth="28800" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72">
   <si>
     <t>search</t>
   </si>
@@ -46,6 +46,9 @@
     <t>1 Ounce (Pack of 24)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/61-IFnBPvmS._SL1000_.jpg</t>
+  </si>
+  <si>
     <t>sausage</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>1 Pound (Pack of 1)</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/71VgzduSqBL._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>organic sausage</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>6 Ounce</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/81Qi4N6N-BL._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>frankfurter</t>
   </si>
   <si>
@@ -79,6 +88,9 @@
     <t>12 Ounce</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/91N9gsw-X1L._SL1500_.jpg</t>
+  </si>
+  <si>
     <t>frozen meals</t>
   </si>
   <si>
@@ -91,148 +103,133 @@
     <t>14 Piece Assortment</t>
   </si>
   <si>
-    <t>meat spreads</t>
-  </si>
-  <si>
-    <t>SKIPPY Peanut Butter Blended with Plant Protein, Creamy, 14 Ounce (Pack of 6)</t>
+    <t>https://m.media-amazon.com/images/I/81FBF4l7oXL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>pork</t>
+  </si>
+  <si>
+    <t>Nutristore Freeze-Dried Pulled Pork | Premium Quality Pre-Cooked Meat | Survival Emergency Food Supply | Meat for Home Meals &amp; Lightweight Camping | USDA Inspected | 25-Year Shelf Life (1-Pack)</t>
+  </si>
+  <si>
+    <t>5 Pound (Pack of 1)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71tGZztTAyL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>frozen chicken</t>
+  </si>
+  <si>
+    <t>JOEDOT Southern Style Chicken Bites, Made with 100% whole solid white meat chicken, Frozen (3 lbs.)</t>
+  </si>
+  <si>
+    <t>22 Piece Set</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71zcbQ868AL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>hamburger meat</t>
+  </si>
+  <si>
+    <t>Yoders Canned Hamburger Meat 28oz</t>
+  </si>
+  <si>
+    <t>1.75 Pound (Pack of 1)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91u6mZ2L20L._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>chicken</t>
+  </si>
+  <si>
+    <t>StarKist Premium White Chicken - 2.6 oz Pouch (Pack of 12)</t>
+  </si>
+  <si>
+    <t>4.7 out of 5 stars</t>
+  </si>
+  <si>
+    <t>2.6 Ounce (Pack of 12)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/9143HeN-WJL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>canned fish</t>
+  </si>
+  <si>
+    <t>StarKist Chunk Light Tuna in Water, 5 O, 48 Count</t>
+  </si>
+  <si>
+    <t>4.8 out of 5 stars</t>
+  </si>
+  <si>
+    <t>5 Ounce (Pack of 48)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/6197678gGvL._SL1200_.jpg</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>Matiz Seafood Variety Pack Sampler |10 pack|, 1 can each of Matiz Seafood Line</t>
+  </si>
+  <si>
+    <t>4.9 out of 5 stars</t>
+  </si>
+  <si>
+    <t>10 Piece Set</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71tucfInZvL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t>frozen fish</t>
+  </si>
+  <si>
+    <t>Sea Best Flounder Fillets, 1 Pound (Pack of 12)</t>
+  </si>
+  <si>
+    <t>4.2 out of 5 stars</t>
+  </si>
+  <si>
+    <t>1 Pound (Pack of 12)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/71zYVr7tiNL._SL1500_.jpg</t>
+  </si>
+  <si>
+    <t>ice cream</t>
+  </si>
+  <si>
+    <t>Astronaut Foods Freeze-Dried Ice Cream Sandwich, NASA Space Dessert, Variety Pack with Vanilla and Neapolitan, 6 Count</t>
+  </si>
+  <si>
+    <t>4.3 out of 5 stars</t>
+  </si>
+  <si>
+    <t>1 Ounce (Pack of 6)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51Rq7eCI7sL.jpg</t>
+  </si>
+  <si>
+    <t>soups</t>
+  </si>
+  <si>
+    <t>Campbell's Chunky Savory Chicken with White &amp; Wild Rice Soup, 18.8 oz Can (Pack of 12)</t>
   </si>
   <si>
     <t>4.6 out of 5 stars</t>
   </si>
   <si>
-    <t>14 Ounce (Pack of 6)</t>
-  </si>
-  <si>
-    <t>turkey</t>
-  </si>
-  <si>
-    <t>Thanksgiving Stickers for Kids 48PCS Make Your Own Turkey Sticker Sheets Make A Turkey Stickers Party Activities Art Craft School Reward</t>
-  </si>
-  <si>
-    <t>4.0 out of 5 stars</t>
-  </si>
-  <si>
-    <t>25 Ounce (Pack of 1)</t>
-  </si>
-  <si>
-    <t>pork</t>
-  </si>
-  <si>
-    <t>Nutristore Freeze-Dried Pulled Pork | Premium Quality Pre-Cooked Meat | Survival Emergency Food Supply | Meat for Home Meals &amp; Lightweight Camping | USDA Inspected | 25-Year Shelf Life (1-Pack)</t>
-  </si>
-  <si>
-    <t>5 Pound (Pack of 1)</t>
-  </si>
-  <si>
-    <t>frozen chicken</t>
-  </si>
-  <si>
-    <t>JOEDOT Southern Style Chicken Bites, Made with 100% whole solid white meat chicken, Frozen (3 lbs.)</t>
-  </si>
-  <si>
-    <t>22 Piece Set</t>
-  </si>
-  <si>
-    <t>hamburger meat</t>
-  </si>
-  <si>
-    <t>Yoders Canned Hamburger Meat 28oz</t>
-  </si>
-  <si>
-    <t>1.75 Pound (Pack of 1)</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>MeatStick MiniX Set | 260ft Wireless Meat Thermometer Real-time Monitoring for Oven, Stove Top, Deep Frying, Sous Vide, Rotisserie</t>
-  </si>
-  <si>
-    <t>4.2 out of 5 stars</t>
-  </si>
-  <si>
-    <t>12 Ounce (Pack of 12)</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>StarKist Premium White Chicken - 2.6 oz Pouch (Pack of 12)</t>
-  </si>
-  <si>
-    <t>4.7 out of 5 stars</t>
-  </si>
-  <si>
-    <t>2.6 Ounce (Pack of 12)</t>
-  </si>
-  <si>
-    <t>canned fish</t>
-  </si>
-  <si>
-    <t>StarKist Chunk Light Tuna in Water, 5 O, 48 Count</t>
-  </si>
-  <si>
-    <t>4.8 out of 5 stars</t>
-  </si>
-  <si>
-    <t>5 Ounce (Pack of 48)</t>
-  </si>
-  <si>
-    <t>dessert</t>
-  </si>
-  <si>
-    <t>Cupcake Boxes 4 Pack Kraft 15 pcs - 6x6x3 Bakery Box with Inserts - 4 Count Cupcake Container - 4 Cupcake Boxes for Cookies, Dessert, Treat, Muffin Boxes - Sturdy Charcuterie Packaging 6 Inch</t>
-  </si>
-  <si>
-    <t>Assorted</t>
-  </si>
-  <si>
-    <t>frozen dessert</t>
-  </si>
-  <si>
-    <t>Yonanas Classic Original Healthy Dessert Fruit Soft Serve Maker, 200-Watt, Silver</t>
-  </si>
-  <si>
-    <t>4.3 out of 5 stars</t>
-  </si>
-  <si>
-    <t>1 Ounce (Pack of 6)</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>Matiz Seafood Variety Pack Sampler |10 pack|, 1 can each of Matiz Seafood Line</t>
-  </si>
-  <si>
-    <t>4.9 out of 5 stars</t>
-  </si>
-  <si>
-    <t>10 Piece Set</t>
-  </si>
-  <si>
-    <t>frozen fish</t>
-  </si>
-  <si>
-    <t>Sea Best Flounder Fillets, 1 Pound (Pack of 12)</t>
-  </si>
-  <si>
-    <t>1 Pound (Pack of 12)</t>
-  </si>
-  <si>
-    <t>ice cream</t>
-  </si>
-  <si>
-    <t>Astronaut Foods Freeze-Dried Ice Cream Sandwich, NASA Space Dessert, Variety Pack with Vanilla and Neapolitan, 6 Count</t>
-  </si>
-  <si>
-    <t>soups</t>
-  </si>
-  <si>
-    <t>Campbell's Chunky Savory Chicken with White &amp; Wild Rice Soup, 18.8 oz Can (Pack of 12)</t>
-  </si>
-  <si>
     <t>18.8 Ounce (Pack of 12)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/91ZNuIU4+OS._SL1500_.jpg</t>
   </si>
 </sst>
 </file>
@@ -241,10 +238,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -252,27 +249,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,6 +260,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -300,6 +320,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -307,18 +351,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -330,9 +367,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,14 +382,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -361,37 +389,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -414,19 +411,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,157 +537,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,32 +608,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,15 +622,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,157 +666,187 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -858,6 +855,9 @@
     </xf>
     <xf numFmtId="26" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1178,13 +1178,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:G21"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="18.4464285714286" customWidth="1"/>
     <col min="3" max="3" width="77.9732142857143" customWidth="1"/>
@@ -1211,7 +1211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:8">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1230,376 +1230,326 @@
       <c r="G2" s="1">
         <v>0</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>34.95</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1">
         <v>0</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:8">
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2">
         <v>13.29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:8">
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2">
         <v>33.99</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:8">
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" s="2">
         <v>28.99</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
+      <c r="H6" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:8">
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2">
-        <v>23.43</v>
+        <v>59.99</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
       </c>
+      <c r="H7" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:8">
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E8" s="2">
-        <v>8.99</v>
+        <v>171.46</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:8">
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2">
-        <v>59.99</v>
+        <v>18.56</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
+      <c r="H9" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:8">
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2">
-        <v>171.46</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:8">
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2">
-        <v>18.56</v>
+        <v>31.68</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
+      <c r="H11" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:8">
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E12" s="2">
-        <v>99.99</v>
+        <v>6.67</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:8">
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2">
-        <v>71</v>
+        <v>149.99</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:8">
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2">
-        <v>31.68</v>
+        <v>22.99</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
+      <c r="H14" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:8">
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="E15" s="2">
-        <v>12.99</v>
+        <v>17.4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="2">
-        <v>44.98</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="2">
-        <v>6.67</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="2">
-        <v>149.99</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="2">
-        <v>22.99</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="H15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="2">
-        <v>17.4</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="https://m.media-amazon.com/images/I/61-IFnBPvmS._SL1000_.jpg"/>
+    <hyperlink ref="H3" r:id="rId2" display="https://m.media-amazon.com/images/I/71VgzduSqBL._SL1500_.jpg"/>
+    <hyperlink ref="H4" r:id="rId3" display="https://m.media-amazon.com/images/I/81Qi4N6N-BL._SL1500_.jpg"/>
+    <hyperlink ref="H5" r:id="rId4" display="https://m.media-amazon.com/images/I/91N9gsw-X1L._SL1500_.jpg"/>
+    <hyperlink ref="H6" r:id="rId5" display="https://m.media-amazon.com/images/I/81FBF4l7oXL._SL1500_.jpg"/>
+    <hyperlink ref="H7" r:id="rId6" display="https://m.media-amazon.com/images/I/71tGZztTAyL._SL1500_.jpg"/>
+    <hyperlink ref="H8" r:id="rId7" display="https://m.media-amazon.com/images/I/71zcbQ868AL._SL1500_.jpg"/>
+    <hyperlink ref="H9" r:id="rId8" display="https://m.media-amazon.com/images/I/91u6mZ2L20L._SL1500_.jpg"/>
+    <hyperlink ref="H10" r:id="rId9" display="https://m.media-amazon.com/images/I/9143HeN-WJL._SL1500_.jpg"/>
+    <hyperlink ref="H11" r:id="rId10" display="https://m.media-amazon.com/images/I/6197678gGvL._SL1200_.jpg"/>
+    <hyperlink ref="H12" r:id="rId11" display="https://m.media-amazon.com/images/I/71tucfInZvL._AC_SL1000_.jpg"/>
+    <hyperlink ref="H13" r:id="rId12" display="https://m.media-amazon.com/images/I/71zYVr7tiNL._SL1500_.jpg"/>
+    <hyperlink ref="H14" r:id="rId13" display="https://m.media-amazon.com/images/I/51Rq7eCI7sL.jpg"/>
+    <hyperlink ref="H15" r:id="rId14" display="https://m.media-amazon.com/images/I/91ZNuIU4+OS._SL1500_.jpg"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
